--- a/individual_results/avey/187.xlsx
+++ b/individual_results/avey/187.xlsx
@@ -555,7 +555,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -564,7 +564,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -585,7 +585,7 @@
         <v>0.5</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N2" t="n">
         <v>0.5</v>
@@ -603,19 +603,19 @@
         <v>1</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T2" t="n">
         <v>1</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V2" t="n">
         <v>1</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -628,7 +628,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -637,7 +637,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0.5</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N3" t="n">
         <v>0.5</v>
@@ -676,19 +676,19 @@
         <v>0.5</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="T3" t="n">
         <v>0.5</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="V3" t="n">
         <v>0.5</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4">
@@ -700,7 +700,9 @@
       <c r="B4" t="n">
         <v>1</v>
       </c>
-      <c r="C4" t="inlineStr"/>
+      <c r="C4" t="n">
+        <v>0.3333333333333333</v>
+      </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
@@ -708,7 +710,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
@@ -724,7 +726,9 @@
       <c r="L4" t="n">
         <v>0.5</v>
       </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="M4" t="n">
+        <v>0.5</v>
+      </c>
       <c r="N4" t="n">
         <v>0.5</v>
       </c>
@@ -738,15 +742,21 @@
       <c r="R4" t="n">
         <v>0.6666666666666666</v>
       </c>
-      <c r="S4" t="inlineStr"/>
+      <c r="S4" t="n">
+        <v>0.6666666666666666</v>
+      </c>
       <c r="T4" t="n">
         <v>0.6666666666666666</v>
       </c>
-      <c r="U4" t="inlineStr"/>
+      <c r="U4" t="n">
+        <v>0.6666666666666666</v>
+      </c>
       <c r="V4" t="n">
         <v>0.6666666666666666</v>
       </c>
-      <c r="W4" t="inlineStr"/>
+      <c r="W4" t="n">
+        <v>0.6666666666666666</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -757,7 +767,9 @@
       <c r="B5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="inlineStr"/>
+      <c r="C5" t="n">
+        <v>0.4166666666666667</v>
+      </c>
       <c r="D5" t="n">
         <v>1</v>
       </c>
@@ -765,7 +777,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
@@ -781,7 +793,9 @@
       <c r="L5" t="n">
         <v>0.5</v>
       </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="M5" t="n">
+        <v>0.5</v>
+      </c>
       <c r="N5" t="n">
         <v>0.5</v>
       </c>
@@ -795,15 +809,21 @@
       <c r="R5" t="n">
         <v>0.5555555555555556</v>
       </c>
-      <c r="S5" t="inlineStr"/>
+      <c r="S5" t="n">
+        <v>0.5555555555555556</v>
+      </c>
       <c r="T5" t="n">
         <v>0.5555555555555556</v>
       </c>
-      <c r="U5" t="inlineStr"/>
+      <c r="U5" t="n">
+        <v>0.5555555555555556</v>
+      </c>
       <c r="V5" t="n">
         <v>0.5555555555555556</v>
       </c>
-      <c r="W5" t="inlineStr"/>
+      <c r="W5" t="n">
+        <v>0.5555555555555556</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -815,7 +835,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>0.8262346571285599</v>
       </c>
       <c r="D6" t="n">
         <v>0.7967075809905066</v>
@@ -824,7 +844,7 @@
         <v>0.7967075809905066</v>
       </c>
       <c r="F6" t="n">
-        <v>0.17376534287144</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -845,7 +865,7 @@
         <v>0.8262346571285599</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>0.8262346571285599</v>
       </c>
       <c r="N6" t="n">
         <v>0.8262346571285599</v>
@@ -863,19 +883,19 @@
         <v>0.8262346571285599</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>0.8262346571285599</v>
       </c>
       <c r="T6" t="n">
         <v>0.8262346571285599</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>0.8262346571285599</v>
       </c>
       <c r="V6" t="n">
         <v>0.8262346571285599</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>0.8262346571285599</v>
       </c>
     </row>
     <row r="7">
@@ -888,7 +908,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
@@ -897,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
@@ -918,7 +938,7 @@
         <v>1</v>
       </c>
       <c r="M7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" t="b">
         <v>1</v>
@@ -936,19 +956,19 @@
         <v>1</v>
       </c>
       <c r="S7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7" t="b">
         <v>1</v>
       </c>
       <c r="U7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V7" t="b">
         <v>1</v>
       </c>
       <c r="W7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -961,7 +981,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
@@ -970,7 +990,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
@@ -991,7 +1011,7 @@
         <v>1</v>
       </c>
       <c r="M8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" t="b">
         <v>1</v>
@@ -1009,19 +1029,19 @@
         <v>1</v>
       </c>
       <c r="S8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8" t="b">
         <v>1</v>
       </c>
       <c r="U8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V8" t="b">
         <v>1</v>
       </c>
       <c r="W8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -1034,7 +1054,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
@@ -1043,7 +1063,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
@@ -1064,7 +1084,7 @@
         <v>1</v>
       </c>
       <c r="M9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9" t="b">
         <v>1</v>
@@ -1082,19 +1102,19 @@
         <v>1</v>
       </c>
       <c r="S9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T9" t="b">
         <v>1</v>
       </c>
       <c r="U9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V9" t="b">
         <v>1</v>
       </c>
       <c r="W9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -1106,14 +1126,18 @@
       <c r="B10" t="n">
         <v>1</v>
       </c>
-      <c r="C10" t="inlineStr"/>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
       <c r="D10" t="n">
         <v>2</v>
       </c>
       <c r="E10" t="n">
         <v>2</v>
       </c>
-      <c r="F10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="n">
         <v>1</v>
@@ -1128,7 +1152,9 @@
       <c r="L10" t="n">
         <v>1</v>
       </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
       <c r="N10" t="n">
         <v>1</v>
       </c>
@@ -1142,15 +1168,21 @@
       <c r="R10" t="n">
         <v>1</v>
       </c>
-      <c r="S10" t="inlineStr"/>
+      <c r="S10" t="n">
+        <v>1</v>
+      </c>
       <c r="T10" t="n">
         <v>1</v>
       </c>
-      <c r="U10" t="inlineStr"/>
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
       <c r="V10" t="n">
         <v>1</v>
       </c>
-      <c r="W10" t="inlineStr"/>
+      <c r="W10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">

--- a/individual_results/avey/187.xlsx
+++ b/individual_results/avey/187.xlsx
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0.25</v>
@@ -625,7 +625,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0.5</v>
@@ -697,9 +697,7 @@
           <t>f1-score</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
         <v>0.3333333333333333</v>
       </c>
@@ -764,9 +762,7 @@
           <t>f2-score</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
         <v>0.4166666666666667</v>
       </c>
@@ -832,7 +828,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0.8262346571285599</v>
@@ -905,7 +901,7 @@
         </is>
       </c>
       <c r="B7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="b">
         <v>1</v>
@@ -978,7 +974,7 @@
         </is>
       </c>
       <c r="B8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="b">
         <v>1</v>
@@ -1051,7 +1047,7 @@
         </is>
       </c>
       <c r="B9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="b">
         <v>1</v>
@@ -1123,9 +1119,7 @@
           <t>position</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
         <v>1</v>
       </c>
